--- a/outputs/Lib_3_1.xlsx
+++ b/outputs/Lib_3_1.xlsx
@@ -1,20 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Universidade\2º Semestre\Simulação\SO_trabalho\outputs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDCC650E-B426-4266-83BC-0070C6CABDDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lib_3_1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="34">
   <si>
     <t>#</t>
   </si>
@@ -113,13 +132,16 @@
   </si>
   <si>
     <t>p24</t>
+  </si>
+  <si>
+    <t>Z-Z*</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,11 +178,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -202,7 +232,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -234,9 +264,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -268,6 +316,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -443,14 +509,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="6" max="6" width="11.81640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -464,13 +535,16 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -487,10 +561,14 @@
         <v>0</v>
       </c>
       <c r="F2">
+        <f>(E2/C2)*100</f>
+        <v>0</v>
+      </c>
+      <c r="G2">
         <v>166</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -507,10 +585,14 @@
         <v>0</v>
       </c>
       <c r="F3">
+        <f t="shared" ref="F3:F25" si="0">(E3/C3)*100</f>
+        <v>0</v>
+      </c>
+      <c r="G3">
         <v>206</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -524,13 +606,17 @@
         <v>1014099.6125</v>
       </c>
       <c r="E4">
-        <v>0.002500000060535967</v>
+        <v>2.5000000605359669E-3</v>
       </c>
       <c r="F4">
+        <f t="shared" si="0"/>
+        <v>2.465241122157583E-7</v>
+      </c>
+      <c r="G4">
         <v>290</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -544,13 +630,17 @@
         <v>1053197.4375</v>
       </c>
       <c r="E5">
-        <v>0.002499999711290002</v>
+        <v>2.4999997112900019E-3</v>
       </c>
       <c r="F5">
+        <f t="shared" si="0"/>
+        <v>2.3737236878300824E-7</v>
+      </c>
+      <c r="G5">
         <v>705</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -567,10 +657,14 @@
         <v>0</v>
       </c>
       <c r="F6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G6">
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -587,10 +681,14 @@
         <v>0</v>
       </c>
       <c r="F7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G7">
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -607,10 +705,14 @@
         <v>1.164153218269348E-10</v>
       </c>
       <c r="F8">
+        <f t="shared" si="0"/>
+        <v>1.1518953811654451E-14</v>
+      </c>
+      <c r="G8">
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -624,13 +726,17 @@
         <v>1034976.975</v>
       </c>
       <c r="E9">
-        <v>0.005000000121071935</v>
+        <v>5.0000001210719347E-3</v>
       </c>
       <c r="F9">
+        <f t="shared" si="0"/>
+        <v>4.8310254875255194E-7</v>
+      </c>
+      <c r="G9">
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -638,19 +744,23 @@
         <v>16</v>
       </c>
       <c r="C10">
-        <v>796648.4399999999</v>
+        <v>796648.44</v>
       </c>
       <c r="D10">
         <v>796648.4375</v>
       </c>
       <c r="E10">
-        <v>0.002499999944120646</v>
+        <v>2.499999944120646E-3</v>
       </c>
       <c r="F10">
+        <f t="shared" si="0"/>
+        <v>3.1381470402686613E-7</v>
+      </c>
+      <c r="G10">
         <v>243</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -658,19 +768,23 @@
         <v>16</v>
       </c>
       <c r="C11">
-        <v>858109.3199999999</v>
+        <v>858109.32</v>
       </c>
       <c r="D11">
-        <v>858158.8249999998</v>
+        <v>858158.82499999984</v>
       </c>
       <c r="E11">
-        <v>49.50499999988824</v>
+        <v>49.504999999888241</v>
       </c>
       <c r="F11">
+        <f t="shared" si="0"/>
+        <v>5.7690784665860809E-3</v>
+      </c>
+      <c r="G11">
         <v>308</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -681,16 +795,20 @@
         <v>900760.11</v>
       </c>
       <c r="D12">
-        <v>900760.1125</v>
+        <v>900760.11250000005</v>
       </c>
       <c r="E12">
-        <v>0.002500000060535967</v>
+        <v>2.5000000605359669E-3</v>
       </c>
       <c r="F12">
+        <f t="shared" si="0"/>
+        <v>2.7754338061617392E-7</v>
+      </c>
+      <c r="G12">
         <v>762</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -701,16 +819,20 @@
         <v>950608.42</v>
       </c>
       <c r="D13">
-        <v>950608.425</v>
+        <v>950608.42500000005</v>
       </c>
       <c r="E13">
-        <v>0.005000000004656613</v>
+        <v>5.0000000046566129E-3</v>
       </c>
       <c r="F13">
+        <f t="shared" si="0"/>
+        <v>5.2597893091001793E-7</v>
+      </c>
+      <c r="G13">
         <v>1623</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -718,19 +840,23 @@
         <v>16</v>
       </c>
       <c r="C14">
-        <v>796648.4399999999</v>
+        <v>796648.44</v>
       </c>
       <c r="D14">
         <v>796648.4375</v>
       </c>
       <c r="E14">
-        <v>0.002499999944120646</v>
+        <v>2.499999944120646E-3</v>
       </c>
       <c r="F14">
+        <f t="shared" si="0"/>
+        <v>3.1381470402686613E-7</v>
+      </c>
+      <c r="G14">
         <v>112</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -741,16 +867,20 @@
         <v>854704.2</v>
       </c>
       <c r="D15">
-        <v>854704.2000000001</v>
+        <v>854704.20000000007</v>
       </c>
       <c r="E15">
         <v>1.164153218269348E-10</v>
       </c>
       <c r="F15">
+        <f t="shared" si="0"/>
+        <v>1.3620539342960384E-14</v>
+      </c>
+      <c r="G15">
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -761,16 +891,20 @@
         <v>893782.11</v>
       </c>
       <c r="D16">
-        <v>893782.1125</v>
+        <v>893782.11250000005</v>
       </c>
       <c r="E16">
-        <v>0.002500000060535967</v>
+        <v>2.5000000605359669E-3</v>
       </c>
       <c r="F16">
+        <f t="shared" si="0"/>
+        <v>2.7971023726755586E-7</v>
+      </c>
+      <c r="G16">
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -787,10 +921,14 @@
         <v>0</v>
       </c>
       <c r="F17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G17">
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -798,19 +936,23 @@
         <v>25</v>
       </c>
       <c r="C18">
-        <v>793439.5600000001</v>
+        <v>793439.56</v>
       </c>
       <c r="D18">
         <v>793439.5625</v>
       </c>
       <c r="E18">
-        <v>0.002499999944120646</v>
+        <v>2.499999944120646E-3</v>
       </c>
       <c r="F18">
+        <f t="shared" si="0"/>
+        <v>3.1508385391328933E-7</v>
+      </c>
+      <c r="G18">
         <v>361</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -821,16 +963,20 @@
         <v>854900.45</v>
       </c>
       <c r="D19">
-        <v>854900.4500000001</v>
+        <v>854900.45000000007</v>
       </c>
       <c r="E19">
         <v>1.164153218269348E-10</v>
       </c>
       <c r="F19">
+        <f t="shared" si="0"/>
+        <v>1.3617412627041522E-14</v>
+      </c>
+      <c r="G19">
         <v>520</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -841,16 +987,20 @@
         <v>898266.08</v>
       </c>
       <c r="D20">
-        <v>898266.0750000001</v>
+        <v>898266.07500000007</v>
       </c>
       <c r="E20">
-        <v>0.004999999888241291</v>
+        <v>4.999999888241291E-3</v>
       </c>
       <c r="F20">
+        <f t="shared" si="0"/>
+        <v>5.5662793013861671E-7</v>
+      </c>
+      <c r="G20">
         <v>755</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -858,19 +1008,23 @@
         <v>25</v>
       </c>
       <c r="C21">
-        <v>950608.4300000001</v>
+        <v>950608.43</v>
       </c>
       <c r="D21">
-        <v>950608.425</v>
+        <v>950608.42500000005</v>
       </c>
       <c r="E21">
-        <v>0.005000000004656613</v>
+        <v>5.0000000046566129E-3</v>
       </c>
       <c r="F21">
+        <f t="shared" si="0"/>
+        <v>5.2597892537694122E-7</v>
+      </c>
+      <c r="G21">
         <v>1480</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -878,19 +1032,23 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>793439.5600000001</v>
+        <v>793439.56</v>
       </c>
       <c r="D22">
         <v>793439.5625</v>
       </c>
       <c r="E22">
-        <v>0.002499999944120646</v>
+        <v>2.499999944120646E-3</v>
       </c>
       <c r="F22">
+        <f t="shared" si="0"/>
+        <v>3.1508385391328933E-7</v>
+      </c>
+      <c r="G22">
         <v>146</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -898,19 +1056,23 @@
         <v>25</v>
       </c>
       <c r="C23">
-        <v>851495.3199999999</v>
+        <v>851495.32</v>
       </c>
       <c r="D23">
-        <v>851495.3250000001</v>
+        <v>851495.32500000007</v>
       </c>
       <c r="E23">
-        <v>0.005000000121071935</v>
+        <v>5.0000001210719347E-3</v>
       </c>
       <c r="F23">
+        <f t="shared" si="0"/>
+        <v>5.8720230207159975E-7</v>
+      </c>
+      <c r="G23">
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -921,16 +1083,20 @@
         <v>893076.71</v>
       </c>
       <c r="D24">
-        <v>893076.7125</v>
+        <v>893076.71250000002</v>
       </c>
       <c r="E24">
-        <v>0.002500000060535967</v>
+        <v>2.5000000605359669E-3</v>
       </c>
       <c r="F24">
+        <f t="shared" si="0"/>
+        <v>2.7993116745099834E-7</v>
+      </c>
+      <c r="G24">
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -947,6 +1113,10 @@
         <v>0</v>
       </c>
       <c r="F25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G25">
         <v>100</v>
       </c>
     </row>
